--- a/biology/Zoologie/Curculionidae/Curculionidae.xlsx
+++ b/biology/Zoologie/Curculionidae/Curculionidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Curculionidae sont une famille d'insectes phytophages appartenant à l'ordre des Coléoptères. Cette famille comprend certaines espèces de charançons (on en trouve également dans d'autres familles), le genre Orchestes, etc. Certaines espèces peuvent causer des dégâts importants à diverses cultures ainsi qu'aux récoltes entreposées.
-On en compte environ 2 200 espèces en France (selon l'INPN      (10 mai 2021)[1]), plus de 5 000 en Europe (d'après Fauna Europaea                                      (10 mai 2021)[2]) et près de 83 000 espèces décrites, réparties en plus de 6 000 genres, à travers le monde (d'après Catalogue of Life                                   (10 mai 2021)[3]). Elle rassemble probablement plus de 200 000 espèces dans le monde, ce qui constituerait la plus importante famille du règne animal par le nombre d'espèces[4].
+On en compte environ 2 200 espèces en France (selon l'INPN      (10 mai 2021)), plus de 5 000 en Europe (d'après Fauna Europaea                                      (10 mai 2021)) et près de 83 000 espèces décrites, réparties en plus de 6 000 genres, à travers le monde (d'après Catalogue of Life                                   (10 mai 2021)). Elle rassemble probablement plus de 200 000 espèces dans le monde, ce qui constituerait la plus importante famille du règne animal par le nombre d'espèces.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Caractères généraux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les insectes adultes mesurent de 1,5 à 20 mm de long et ont la tête prolongée par un museau (à ne pas confondre avec un rostre, les pièces buccales sont bien de type broyeuses, le rostre étant de type suceur). Les antennes ont une forme caractéristique, coudée à angle droit, avec un premier article, le scape, très long.
 Les larves sont blanchâtres, apodes et de forme généralement incurvée.
@@ -544,16 +558,90 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques espèces, classées par sous-famille.
-Ceutorhynchinae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Curculionidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ceutorhynchinae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ceutorhynchus assimilis - Charançon des siliques du colza
 Ceutorhynchus napi - Charançon de la tige du colza
 Ceutorhynchus picitarsis - Charançon du bourgeon terminal
 Ceutorhynchus pleurostigma - Charançon gallicole du chou
 Ceutorhynchus quadridens - Charançon de la tige du chou
-Curculioninae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Curculionidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Curculioninae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anthonomus amygdali - Anthonome de l'amandier
 Anthonomus grandis - Charançon du coton
 Anthonomus pomorum - Anthonome du pommier
@@ -564,25 +652,205 @@
 Orchestes (Salius) fagi - Orcheste du hêtre, ou charançon du hêtre
 Orchestes quercus - Orcheste du chêne
 Orchestes testaceus - Orcheste du bouleau
-Cryptorhynchinae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Curculionidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cryptorhynchinae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cryptorhynchus lapathi - Charançon du saule
-Trigonopterus chewbacca (en l'honneur du personnage Chewbacca de Star Wars[5])
+Trigonopterus chewbacca (en l'honneur du personnage Chewbacca de Star Wars)
 Trigonopterus insignis
 Trigonopterus obsidianus
 Trigonopterus puncticollis
 Trigonopterus silaliensis
-Hyperinae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Curculionidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hyperinae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hypera postica - Phytonome variable ou Phytonome de la luzerne  (Europe, légumineuses)
 Hypera zoilus - Charançon des feuilles du trèfle ou bruche du trèfle
-Lixinae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Curculionidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lixinae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Conorhynchus mendicus - Cléone mendiant
 Lixus juncii - Lixus de la betterave
-Molytinae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Curculionidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Molytinae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hylobius abietis - Grand charançon du pin  ou Hylobie du sapin
 Hylobius excavatus - Gros charançon de l'épinette
 Pissodes strobi Peck - Charançon du pin blanc
 Pissodes piceae - Pissode du sapin
-Entiminae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Curculionidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Entiminae</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Otiorhynchus cribricollis - Otiorhynque de l'olivier
 Otiorhynchus ligustici - Otiorhynque de la livèche
 Otiorhynchus meridionalis
@@ -590,7 +858,43 @@
 Peritelus sphaeroides - Péritèle gris (Europe, vignes, boutons de rose, etc.)
 Phyllobius pomaceus - Charançon de l'ortie
 Sitona lineatus - Sitone du pois
-Sans sous-famille
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Curculionidae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sans sous-famille</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chrysolopus spectabilis (charançon australien, acacias, mimozas, etc.)
 Conotrachelus nenuphar - Charançon américain du prunier
 Sternochetus mangiferae - Charançon du noyau de la mangue
@@ -598,34 +902,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Curculionidae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Curculionidae comprennent plus de 4 000 genres répartis dans 17 sous-familles.
-Liste des sous-familles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Curculionidae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bagoinae C.G.Thomson, 1859
 Baridinae Schoenherr, 1836
 Ceutorhynchinae Gistel, 1856
@@ -644,14 +986,87 @@
 Scolytinae Latreille, 1804 voir Scolytidae
 Xiphaspidinae Marshall, 1920
 [source: Bouchard et al. (2011)]
-Sous-familles reclassées
-Les sous-familles suivantes de la Phylogénie de Zarazaga &amp; Lyal 1999 ne font plus partie de la famille des Curculionidés depuis Bouchard et al. (2011) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Curculionidae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sous-familles reclassées</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Les sous-familles suivantes de la Phylogénie de Zarazaga &amp; Lyal 1999 ne font plus partie de la famille des Curculionidés depuis Bouchard et al. (2011) :
 Brachyceropseinae Aurivillius, 1926 ;
 Phylloplatypodinae Kato, 1998 dans Cossoninae ;
 Brachycerinae Billberg, 1820 voir Brachyceridae ;
-Dryophthorinae Schönherr, 1825 voir Dryophthoridae.
-Liste de genres
-Cette famille comprend plus de 6 000 genres[3]. En voici une sélection. Cette section date de la Phylogénie de Zarazaga &amp; Lyal 1999 et n'a pas été mise à jour depuis Bouchard et al. (2011).
+Dryophthorinae Schönherr, 1825 voir Dryophthoridae.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Curculionidae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculionidae</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Liste de genres</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille comprend plus de 6 000 genres. En voici une sélection. Cette section date de la Phylogénie de Zarazaga &amp; Lyal 1999 et n'a pas été mise à jour depuis Bouchard et al. (2011).
 Acalles Schönherr, 1825.
 Acallodes LeConte, 1876.
 Acalyptus Schönherr, 1833.
